--- a/projects/overview.xlsx
+++ b/projects/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SICSS_2024\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4541741-CD8D-42BF-B0F3-6E02716E42D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17A887C-974E-485A-8444-D1BB1738679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6ECACC40-CA07-452D-82BF-047399B28C7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6ECACC40-CA07-452D-82BF-047399B28C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>abortion_laws</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Paula</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Xiaojuan/Grace</t>
   </si>
 </sst>
 </file>
@@ -135,9 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,13 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54114DB0-5906-4E31-B65B-B3E31E33586B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -511,7 +519,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -522,6 +530,9 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -530,6 +541,9 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -538,6 +552,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -589,6 +606,19 @@
       </c>
       <c r="B13" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
